--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\Perfusion-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315EDFC8-830B-4358-8E67-3463BD700DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDED19-75AD-46C7-A8AD-A98F7848BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Component</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Silicone tubing 2mm ID/ 4mm OD</t>
+  </si>
+  <si>
+    <t>12V power supply Barrel jack 2.1mm</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,33 +744,48 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
-        <f>SUM(F4:F17)</f>
-        <v>125.76922222222223</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="5">
+        <f>SUM(F4:F18)</f>
+        <v>127.76922222222223</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -783,7 +801,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G24" s="6"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G25" s="6"/>
@@ -820,6 +838,9 @@
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -836,8 +857,9 @@
     <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="D4" r:id="rId12" display="https://www.amazon.co.uk/Elprico-Peristaltic-Pump-12-24V-Micro/dp/B08TLVLJKD/ref=sr_1_2_sspa?keywords=peristaltic+pump+stepper+motor&amp;qid=1667836740&amp;sprefix=peristaltic+pump+stepper+%2Caps%2C62&amp;sr=8-2-spons&amp;psc=1&amp;smid=A3A5K98CYHK9SR" xr:uid="{8524D24A-4B80-49FC-977F-9FA753E9B6B8}"/>
     <hyperlink ref="D5" r:id="rId13" display="https://uk.rs-online.com/web/p/flexible-tubes/4189999/" xr:uid="{04E82A07-DB41-4F9B-A817-21013BA9F813}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{BC0FBF1B-E7DD-465C-A8D8-0D4854BA3CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>